--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="hero" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="equip" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="role" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -32,71 +33,125 @@
     <t>法力</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>陈咬金</t>
+  </si>
+  <si>
+    <t>icon-hero-cyj.png</t>
+  </si>
+  <si>
     <t>星级</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>star</t>
   </si>
   <si>
-    <t>陈咬金</t>
-  </si>
-  <si>
-    <t>icon-hero-cyj.png</t>
+    <t>职业类型</t>
+  </si>
+  <si>
+    <t>职业等级</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>三板斧</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>icon-sbf.png</t>
+  </si>
+  <si>
+    <t>金箍棒</t>
+  </si>
+  <si>
+    <t>icon-jgb.png</t>
+  </si>
+  <si>
+    <t>普通骑士</t>
+  </si>
+  <si>
+    <t>高级骑士</t>
+  </si>
+  <si>
+    <t>精英骑士</t>
+  </si>
+  <si>
+    <t>普通弓箭手</t>
+  </si>
+  <si>
+    <t>高级弓箭手</t>
+  </si>
+  <si>
+    <t>精英弓箭手</t>
+  </si>
+  <si>
+    <t>普通法师</t>
+  </si>
+  <si>
+    <t>高级法师</t>
+  </si>
+  <si>
+    <t>精英法师</t>
   </si>
   <si>
     <t>孙悟空</t>
   </si>
   <si>
     <t>icon-hero-swk.png</t>
-  </si>
-  <si>
-    <t>三板斧</t>
-  </si>
-  <si>
-    <t>icon-sbf.png</t>
-  </si>
-  <si>
-    <t>金箍棒</t>
-  </si>
-  <si>
-    <t>icon-jgb.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,11 +172,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -137,6 +201,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -172,42 +240,42 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -215,10 +283,10 @@
         <v>1001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>100.0</v>
@@ -235,10 +303,10 @@
         <v>1002.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>300.0</v>
@@ -267,7 +335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -287,48 +355,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -339,10 +407,10 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>100.0</v>
@@ -362,10 +430,10 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>120.0</v>
@@ -385,10 +453,10 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>140.0</v>
@@ -408,10 +476,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>300.0</v>
@@ -431,10 +499,10 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>320.0</v>
@@ -454,10 +522,10 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>380.0</v>
@@ -467,6 +535,222 @@
       </c>
       <c r="G9" s="1">
         <v>500.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -33,9 +33,18 @@
     <t>法力</t>
   </si>
   <si>
+    <t>额外属性</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>star</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -57,16 +66,40 @@
     <t>string</t>
   </si>
   <si>
+    <t>三板斧</t>
+  </si>
+  <si>
+    <t>icon-sbf.png</t>
+  </si>
+  <si>
+    <t>金箍棒</t>
+  </si>
+  <si>
+    <t>icon-jgb.png</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
     <t>陈咬金</t>
   </si>
   <si>
     <t>icon-hero-cyj.png</t>
   </si>
   <si>
-    <t>星级</t>
-  </si>
-  <si>
-    <t>star</t>
+    <t>1001:110,1002:210</t>
+  </si>
+  <si>
+    <t>1001:11,1002:21</t>
+  </si>
+  <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>icon-hero-swk.png</t>
   </si>
   <si>
     <t>职业类型</t>
@@ -75,6 +108,12 @@
     <t>职业等级</t>
   </si>
   <si>
+    <t>2001:220,2002:320</t>
+  </si>
+  <si>
+    <t>2001:22,2002:32</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -90,21 +129,9 @@
     <t>exp</t>
   </si>
   <si>
-    <t>三板斧</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>icon-sbf.png</t>
-  </si>
-  <si>
-    <t>金箍棒</t>
-  </si>
-  <si>
-    <t>icon-jgb.png</t>
-  </si>
-  <si>
     <t>普通骑士</t>
   </si>
   <si>
@@ -130,12 +157,6 @@
   </si>
   <si>
     <t>精英法师</t>
-  </si>
-  <si>
-    <t>孙悟空</t>
-  </si>
-  <si>
-    <t>icon-hero-swk.png</t>
   </si>
 </sst>
 </file>
@@ -216,6 +237,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="16.57"/>
+    <col customWidth="1" min="7" max="7" width="32.71"/>
+    <col customWidth="1" min="8" max="8" width="39.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -237,45 +260,63 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -283,10 +324,10 @@
         <v>1001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>100.0</v>
@@ -296,6 +337,12 @@
       </c>
       <c r="F4" s="1">
         <v>12.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -303,10 +350,10 @@
         <v>1002.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>300.0</v>
@@ -316,6 +363,12 @@
       </c>
       <c r="F5" s="1">
         <v>300.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -335,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -355,48 +408,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +460,10 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>100.0</v>
@@ -430,10 +483,10 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>120.0</v>
@@ -453,10 +506,10 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>140.0</v>
@@ -476,10 +529,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>300.0</v>
@@ -499,10 +552,10 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>320.0</v>
@@ -522,10 +575,10 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>380.0</v>
@@ -551,53 +604,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -614,7 +667,7 @@
         <v>100.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -631,7 +684,7 @@
         <v>200.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +701,7 @@
         <v>300.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +718,7 @@
         <v>110.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +735,7 @@
         <v>210.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -699,7 +752,7 @@
         <v>310.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -716,7 +769,7 @@
         <v>150.0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -733,7 +786,7 @@
         <v>250.0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -750,7 +803,7 @@
         <v>400.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -24,6 +24,60 @@
     <t>图标</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>职业类型</t>
+  </si>
+  <si>
+    <t>职业等级</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>普通骑士</t>
+  </si>
+  <si>
+    <t>高级骑士</t>
+  </si>
+  <si>
+    <t>精英骑士</t>
+  </si>
+  <si>
+    <t>普通弓箭手</t>
+  </si>
+  <si>
+    <t>高级弓箭手</t>
+  </si>
+  <si>
+    <t>精英弓箭手</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
     <t>攻击</t>
   </si>
   <si>
@@ -33,49 +87,49 @@
     <t>法力</t>
   </si>
   <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>三板斧</t>
+  </si>
+  <si>
+    <t>icon-sbf.png</t>
+  </si>
+  <si>
+    <t>普通法师</t>
+  </si>
+  <si>
+    <t>高级法师</t>
+  </si>
+  <si>
+    <t>精英法师</t>
+  </si>
+  <si>
+    <t>金箍棒</t>
+  </si>
+  <si>
+    <t>icon-jgb.png</t>
+  </si>
+  <si>
     <t>额外属性</t>
   </si>
   <si>
-    <t>星级</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>三板斧</t>
-  </si>
-  <si>
-    <t>icon-sbf.png</t>
-  </si>
-  <si>
-    <t>金箍棒</t>
-  </si>
-  <si>
-    <t>icon-jgb.png</t>
+    <t>技能</t>
   </si>
   <si>
     <t>extra</t>
@@ -84,6 +138,9 @@
     <t>upgrade</t>
   </si>
   <si>
+    <t>skills</t>
+  </si>
+  <si>
     <t>陈咬金</t>
   </si>
   <si>
@@ -96,67 +153,31 @@
     <t>1001:11,1002:21</t>
   </si>
   <si>
+    <t>2001,2003,3004</t>
+  </si>
+  <si>
     <t>孙悟空</t>
   </si>
   <si>
     <t>icon-hero-swk.png</t>
   </si>
   <si>
-    <t>职业类型</t>
-  </si>
-  <si>
-    <t>职业等级</t>
-  </si>
-  <si>
     <t>2001:220,2002:320</t>
   </si>
   <si>
     <t>2001:22,2002:32</t>
   </si>
   <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>普通骑士</t>
-  </si>
-  <si>
-    <t>高级骑士</t>
-  </si>
-  <si>
-    <t>精英骑士</t>
-  </si>
-  <si>
-    <t>普通弓箭手</t>
-  </si>
-  <si>
-    <t>高级弓箭手</t>
-  </si>
-  <si>
-    <t>精英弓箭手</t>
-  </si>
-  <si>
-    <t>普通法师</t>
-  </si>
-  <si>
-    <t>高级法师</t>
-  </si>
-  <si>
-    <t>精英法师</t>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>沙僧</t>
+  </si>
+  <si>
+    <t>icon-hero-ss.png</t>
+  </si>
+  <si>
+    <t>3001:220,3002:320</t>
   </si>
 </sst>
 </file>
@@ -193,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -207,6 +228,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -239,6 +263,7 @@
     <col customWidth="1" min="3" max="3" width="16.57"/>
     <col customWidth="1" min="7" max="7" width="32.71"/>
     <col customWidth="1" min="8" max="8" width="39.29"/>
+    <col customWidth="1" min="9" max="9" width="24.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -252,71 +277,80 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -324,10 +358,10 @@
         <v>1001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>100.0</v>
@@ -339,10 +373,13 @@
         <v>12.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -350,10 +387,10 @@
         <v>1002.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1">
         <v>300.0</v>
@@ -365,11 +402,38 @@
         <v>300.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1003.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -388,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -397,59 +461,59 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -460,10 +524,10 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>100.0</v>
@@ -483,10 +547,10 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>120.0</v>
@@ -506,10 +570,10 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>140.0</v>
@@ -529,10 +593,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>300.0</v>
@@ -552,10 +616,10 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>320.0</v>
@@ -575,10 +639,10 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>380.0</v>
@@ -604,53 +668,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +731,7 @@
         <v>100.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +748,7 @@
         <v>200.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -701,7 +765,7 @@
         <v>300.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -718,7 +782,7 @@
         <v>110.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -735,7 +799,7 @@
         <v>210.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -752,7 +816,7 @@
         <v>310.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -769,7 +833,7 @@
         <v>150.0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -786,7 +850,7 @@
         <v>250.0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -803,7 +867,7 @@
         <v>400.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
